--- a/Plichtenheft/Funktionen_Prioritaeten_Tests.xlsx
+++ b/Plichtenheft/Funktionen_Prioritaeten_Tests.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93af167be3ae61a4/Dokumente/GitHub/PSE/Plichtenheft/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -26,30 +22,30 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
-    <t>Kategorie</t>
-  </si>
-  <si>
-    <t>Kriterium</t>
-  </si>
-  <si>
-    <t>Muss/Soll/Kann (=1,2,3)</t>
-  </si>
-  <si>
-    <t>Testfälle</t>
-  </si>
-  <si>
-    <t>Wie läuft das in der GUI?</t>
-  </si>
-  <si>
-    <t>Basisfunktionen</t>
-  </si>
-  <si>
-    <t>Öffnen des Programms</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+    <t xml:space="preserve">Kategorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kriterium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muss/Soll/Kann (=1,2,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testfälle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie läuft das in der GUI?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basisfunktionen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Öffnen des Programms</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -72,12 +68,12 @@
     </r>
   </si>
   <si>
-    <t>Öffnen einer Textdatei</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+    <t xml:space="preserve">Öffnen einer Textdatei</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -103,12 +99,12 @@
     </r>
   </si>
   <si>
-    <t>Öffnen einer Konfiguration</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+    <t xml:space="preserve">Öffnen einer Konfiguration</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -134,15 +130,15 @@
     </r>
   </si>
   <si>
-    <t>Speichern einer Textdatei (?)</t>
-  </si>
-  <si>
-    <t>Speichern einer Konfiguration</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+    <t xml:space="preserve">Speichern einer Textdatei (?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speichern einer Konfiguration</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -166,21 +162,21 @@
     </r>
   </si>
   <si>
-    <t>Speichern von Standardvariablenwerten (?)</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Debug-Funktionen</t>
-  </si>
-  <si>
-    <t>Setzen eines Breakpoints in einem Textfenster</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+    <t xml:space="preserve">Speichern von Standardvariablenwerten (?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debug-Funktionen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setzen eines Breakpoints in einem Textfenster</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -208,15 +204,15 @@
     </r>
   </si>
   <si>
-    <t>per Mausklick</t>
-  </si>
-  <si>
-    <t>Setzen eines Breakpoints synchron in allen Textfenstern</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+    <t xml:space="preserve">per Mausklick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setzen eines Breakpoints synchron in allen Textfenstern</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -242,12 +238,12 @@
     </r>
   </si>
   <si>
-    <t>Löschen eines Breakpoints in einem Textfenster</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+    <t xml:space="preserve">Löschen eines Breakpoints in einem Textfenster</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -273,15 +269,15 @@
     </r>
   </si>
   <si>
-    <t>per Doppelklick</t>
-  </si>
-  <si>
-    <t>Alle Breakpoints eines Fensters löschen</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+    <t xml:space="preserve">per Doppelklick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alle Breakpoints eines Fensters löschen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -297,7 +293,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>a) im Editier-Modus
+      <t xml:space="preserve">a) im Editier-Modus
 b) im Debug-Modus
 → 
 a) Breakpoints werden nicht mehr angezeigt; Programm hält auch nicht mehr an der Stelle
@@ -305,18 +301,18 @@
     </r>
   </si>
   <si>
-    <t>über Menü geregelt</t>
-  </si>
-  <si>
-    <t>Löschen eines Breakpoints synchron in allen Textfenstern auf gleicher Höhe</t>
-  </si>
-  <si>
-    <t>Starten des Debug-Modus</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+    <t xml:space="preserve">über Menü geregelt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Löschen eines Breakpoints synchron in allen Textfenstern auf gleicher Höhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starten des Debug-Modus</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -332,7 +328,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>a) im Editier-Modus mit vorhandenen, sinnvollen Variableneingaben
+      <t xml:space="preserve">a) im Editier-Modus mit vorhandenen, sinnvollen Variableneingaben
 b) im Editier-Modus mit vorhandenen, fehlerhaften Variableneingaben
 c) im Editier-Modus mit fehlenden Variableneingaben
 d) im Debug-Modus
@@ -344,18 +340,18 @@
     </r>
   </si>
   <si>
-    <t>Debugger hält an Breakpoint(s)</t>
-  </si>
-  <si>
-    <t>*Debugger hält an Breakpoint(s)</t>
-  </si>
-  <si>
-    <t>Debugger hält an bedingtem  Breakpoint</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+    <t xml:space="preserve">Debugger hält an Breakpoint(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Debugger hält an Breakpoint(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debugger hält an bedingtem  Breakpoint</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -378,12 +374,12 @@
     </r>
   </si>
   <si>
-    <t>Step</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+    <t xml:space="preserve">Step</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -412,36 +408,37 @@
     </r>
   </si>
   <si>
-    <t>Einzel-Step</t>
-  </si>
-  <si>
-    <t>Step-In (automatisch implementiert)</t>
-  </si>
-  <si>
-    <t>Step-Out (automatisch implementiert)</t>
-  </si>
-  <si>
-    <t>Step-Längen</t>
-  </si>
-  <si>
-    <t>Step-Over</t>
-  </si>
-  <si>
-    <t>Abbruch des Debug-Modus</t>
-  </si>
-  <si>
-    <t>Watch-Expressions</t>
-  </si>
-  <si>
-    <t>Hinzufügen einer Expression</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">Einzel-Step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step-In (automatisch implementiert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step-Out (automatisch implementiert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step-Längen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step-Over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abbruch des Debug-Modus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watch-Expressions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinzufügen einer Expression</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Hinzufügen einer Expression
 </t>
@@ -468,15 +465,16 @@
     </r>
   </si>
   <si>
-    <t>Löschen einer Expression</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">Löschen einer Expression</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Löschen einer Expression
 </t>
@@ -499,15 +497,16 @@
     </r>
   </si>
   <si>
-    <t>Bearbeiten einer Expression</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">Bearbeiten einer Expression</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Bearbeiten einer Expression
 </t>
@@ -529,12 +528,12 @@
     </r>
   </si>
   <si>
-    <t>Hinzufügen einer Markierung</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+    <t xml:space="preserve">Hinzufügen einer Markierung</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -562,15 +561,16 @@
     </r>
   </si>
   <si>
-    <t>Löschen einer Markierung</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">Löschen einer Markierung</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Löschen einer Markierung
 </t>
@@ -594,25 +594,25 @@
     </r>
   </si>
   <si>
-    <t>Anzeigen einer Markierung</t>
-  </si>
-  <si>
-    <t>bei Hover-Over über entsprechender Expression (?)</t>
-  </si>
-  <si>
-    <t>Verschieben einer Expression (innerhalb des Watch-Expressions-Kastens)</t>
-  </si>
-  <si>
-    <t>Bedingte Break-Points</t>
-  </si>
-  <si>
-    <t>siehe Watch-Expressions</t>
-  </si>
-  <si>
-    <t>Variableneingabe</t>
-  </si>
-  <si>
-    <t>Startwert für Variable angeben</t>
+    <t xml:space="preserve">Anzeigen einer Markierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bei Hover-Over über entsprechender Expression (?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verschieben einer Expression (innerhalb des Watch-Expressions-Kastens)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bedingte Break-Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siehe Watch-Expressions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variableneingabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startwert für Variable angeben</t>
   </si>
   <si>
     <t xml:space="preserve">wie funktioniert das?
@@ -623,44 +623,47 @@
 </t>
   </si>
   <si>
-    <t>Startwert-Range für Variable angeben</t>
-  </si>
-  <si>
-    <t>Zufälligen Startwert für Variable einfügen lassen</t>
-  </si>
-  <si>
-    <t>Reihenfolge der Variablen innerhalb der Anzeige verschieben</t>
-  </si>
-  <si>
-    <t>Ein- und Ausblenden in allen Menüs</t>
-  </si>
-  <si>
-    <t>Anzeigen des Scrollbalkens</t>
-  </si>
-  <si>
-    <t>a) alle Items passen in die vordefinierte Fenstergröße
+    <t xml:space="preserve">Startwert-Range für Variable angeben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zufälligen Startwert für Variable einfügen lassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reihenfolge der Variablen innerhalb der Anzeige verschieben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein- und Ausblenden in allen Menüs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anzeigen des Scrollbalkens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) alle Items passen in die vordefinierte Fenstergröße
 b) einige Items finden im vordefinierten Fenster keinen Platz
 a) Scrollbalken ist ausgeblendet
 b) Scrollbalken ist eingeblendet</t>
   </si>
   <si>
-    <t>Variablenausgabe</t>
-  </si>
-  <si>
-    <t>Ausblenden von Variablen</t>
-  </si>
-  <si>
-    <t>Ändern der Reihenfolge</t>
-  </si>
-  <si>
-    <t>Trace</t>
+    <t xml:space="preserve">Variablenausgabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausblenden von Variablen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ändern der Reihenfolge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -668,7 +671,88 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -676,25 +760,62 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -704,60 +825,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border>
+  <borders count="2">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="36">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Erklärender Text" xfId="1" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="22">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -816,341 +1045,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" style="1" customWidth="1"/>
-    <col min="6" max="1025" width="11.5546875" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="49.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" s="2" customFormat="true" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +1088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+    <row r="2" s="2" customFormat="true" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1178,7 +1099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="158.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,20 +1107,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="128.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="105.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1207,7 +1128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1215,7 +1136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="158.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1229,7 +1150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="145.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1237,7 +1158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="118.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1248,7 +1169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="118.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1259,7 +1180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1273,31 +1194,31 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="198" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="198" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="64.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="184.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1305,65 +1226,65 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="211.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="158.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="171.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+    <row r="25" customFormat="false" ht="171.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="211.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
@@ -1371,15 +1292,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="211.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
@@ -1387,12 +1308,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -1400,7 +1321,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="145.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>60</v>
       </c>
@@ -1411,22 +1332,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="48" customFormat="false" ht="79.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
@@ -1437,7 +1358,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>69</v>
       </c>
@@ -1445,21 +1366,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="9"/>
+      <c r="C57" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
